--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpine1-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpine1-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.109325</v>
+        <v>46.0411815</v>
       </c>
       <c r="H2">
-        <v>64.21865</v>
+        <v>92.082363</v>
       </c>
       <c r="I2">
-        <v>0.1141736648813302</v>
+        <v>0.1617813835183017</v>
       </c>
       <c r="J2">
-        <v>0.08242563340967465</v>
+        <v>0.1209708360422164</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N2">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4858301419125</v>
+        <v>1.505914964502</v>
       </c>
       <c r="R2">
-        <v>1.94332056765</v>
+        <v>6.023659858008</v>
       </c>
       <c r="S2">
-        <v>0.1141736648813302</v>
+        <v>0.1617813835183017</v>
       </c>
       <c r="T2">
-        <v>0.08242563340967465</v>
+        <v>0.1209708360422164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>547.541687</v>
       </c>
       <c r="I3">
-        <v>0.648979085048722</v>
+        <v>0.6413247790408747</v>
       </c>
       <c r="J3">
-        <v>0.7027782485177876</v>
+        <v>0.7193188085796143</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N3">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.7615264983845</v>
+        <v>5.969664499465334</v>
       </c>
       <c r="R3">
-        <v>16.569158990307</v>
+        <v>35.817986996792</v>
       </c>
       <c r="S3">
-        <v>0.648979085048722</v>
+        <v>0.6413247790408747</v>
       </c>
       <c r="T3">
-        <v>0.7027782485177876</v>
+        <v>0.7193188085796143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.454077666666667</v>
+        <v>2.911854333333334</v>
       </c>
       <c r="H4">
-        <v>16.362233</v>
+        <v>8.735563000000001</v>
       </c>
       <c r="I4">
-        <v>0.0193934950594803</v>
+        <v>0.01023179265394023</v>
       </c>
       <c r="J4">
-        <v>0.02100117986008241</v>
+        <v>0.01147612121345596</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N4">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0825229221355</v>
+        <v>0.09524093153466669</v>
       </c>
       <c r="R4">
-        <v>0.495137532813</v>
+        <v>0.571445589208</v>
       </c>
       <c r="S4">
-        <v>0.0193934950594803</v>
+        <v>0.01023179265394023</v>
       </c>
       <c r="T4">
-        <v>0.02100117986008241</v>
+        <v>0.01147612121345596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.477465</v>
+        <v>46.5307045</v>
       </c>
       <c r="H5">
-        <v>64.95493</v>
+        <v>93.061409</v>
       </c>
       <c r="I5">
-        <v>0.1154826893777783</v>
+        <v>0.163501489424012</v>
       </c>
       <c r="J5">
-        <v>0.08337066021056311</v>
+        <v>0.1222570325437526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N5">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.4914002841825</v>
+        <v>1.521926282786</v>
       </c>
       <c r="R5">
-        <v>1.96560113673</v>
+        <v>6.087705131144</v>
       </c>
       <c r="S5">
-        <v>0.1154826893777783</v>
+        <v>0.163501489424012</v>
       </c>
       <c r="T5">
-        <v>0.08337066021056311</v>
+        <v>0.1222570325437526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.09862766666667</v>
+        <v>1.216048333333333</v>
       </c>
       <c r="H6">
-        <v>66.295883</v>
+        <v>3.648145</v>
       </c>
       <c r="I6">
-        <v>0.07857783710966491</v>
+        <v>0.004273000287618414</v>
       </c>
       <c r="J6">
-        <v>0.08509179418640352</v>
+        <v>0.004792656663830743</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N6">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.3343632859105</v>
+        <v>0.03977450888666667</v>
       </c>
       <c r="R6">
-        <v>2.006179715463</v>
+        <v>0.23864705332</v>
       </c>
       <c r="S6">
-        <v>0.07857783710966491</v>
+        <v>0.004273000287618414</v>
       </c>
       <c r="T6">
-        <v>0.08509179418640352</v>
+        <v>0.004792656663830743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.578932000000001</v>
+        <v>5.375188000000001</v>
       </c>
       <c r="H7">
-        <v>19.736796</v>
+        <v>16.125564</v>
       </c>
       <c r="I7">
-        <v>0.02339322852302436</v>
+        <v>0.01888755507525308</v>
       </c>
       <c r="J7">
-        <v>0.0253324838154887</v>
+        <v>0.02118454495713003</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N7">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.09954253062600001</v>
+        <v>0.175811649104</v>
       </c>
       <c r="R7">
-        <v>0.5972551837560001</v>
+        <v>1.054869894624</v>
       </c>
       <c r="S7">
-        <v>0.02339322852302436</v>
+        <v>0.01888755507525308</v>
       </c>
       <c r="T7">
-        <v>0.0253324838154887</v>
+        <v>0.02118454495713003</v>
       </c>
     </row>
   </sheetData>
